--- a/testdata/OculusTestData.xlsx
+++ b/testdata/OculusTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Name of Field</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Your appointment request has been received. Someone from our team at SOUTHWEST CARDIAC ASSOCIATES will be in contact with you shortly to confirm the appointment.</t>
+  </si>
+  <si>
+    <t>Invalid Date Error</t>
+  </si>
+  <si>
+    <t>date must be a `date` type, but the final value was: `Invalid Date`.</t>
+  </si>
+  <si>
+    <t>Invalid Visit Reason</t>
+  </si>
+  <si>
+    <t>Field is required</t>
+  </si>
+  <si>
+    <t>Invalid Birthdate</t>
+  </si>
+  <si>
+    <t>birthdate must be a `date` type, but the final value was: `Invalid Date`.</t>
   </si>
 </sst>
 </file>
@@ -467,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +659,30 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1"/>

--- a/testdata/OculusTestData.xlsx
+++ b/testdata/OculusTestData.xlsx
@@ -4,10 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Consultation Request" sheetId="1" r:id="rId1"/>
+    <sheet name="Walk_In Request" sheetId="2" r:id="rId2"/>
+    <sheet name="OculusDateTimePage" sheetId="3" r:id="rId3"/>
+    <sheet name="Step1Page" sheetId="4" r:id="rId4"/>
+    <sheet name="PatientTypePage" sheetId="5" r:id="rId5"/>
+    <sheet name="PersonalInfoPage" sheetId="6" r:id="rId6"/>
+    <sheet name="CareTakerPage" sheetId="13" r:id="rId7"/>
+    <sheet name="Step2Page" sheetId="7" r:id="rId8"/>
+    <sheet name="Step3Page" sheetId="8" r:id="rId9"/>
+    <sheet name="AddCreditCardPage" sheetId="9" r:id="rId10"/>
+    <sheet name="CovidScreeningPage" sheetId="10" r:id="rId11"/>
+    <sheet name="ConfirmAppointmentPage" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t>Name of Field</t>
   </si>
@@ -148,6 +159,141 @@
   </si>
   <si>
     <t>birthdate must be a `date` type, but the final value was: `Invalid Date`.</t>
+  </si>
+  <si>
+    <t>Routine Checkup</t>
+  </si>
+  <si>
+    <t>Page Heading</t>
+  </si>
+  <si>
+    <t>Walk-In</t>
+  </si>
+  <si>
+    <t>Demographics Page Heading</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>What type of appointment do you want?</t>
+  </si>
+  <si>
+    <t>Enter your personal information</t>
+  </si>
+  <si>
+    <t>Bittu</t>
+  </si>
+  <si>
+    <t>Dada</t>
+  </si>
+  <si>
+    <t>Chota</t>
+  </si>
+  <si>
+    <t>Chatari</t>
+  </si>
+  <si>
+    <t>Pappu</t>
+  </si>
+  <si>
+    <t>Khadia</t>
+  </si>
+  <si>
+    <t>Bada</t>
+  </si>
+  <si>
+    <t>Puttan</t>
+  </si>
+  <si>
+    <t>05171992</t>
+  </si>
+  <si>
+    <t>05171993</t>
+  </si>
+  <si>
+    <t>05171994</t>
+  </si>
+  <si>
+    <t>Personal Phone Number</t>
+  </si>
+  <si>
+    <t>bittu@gmail.com</t>
+  </si>
+  <si>
+    <t>chatri@yahoo.in</t>
+  </si>
+  <si>
+    <t>pappu@hotmail.com</t>
+  </si>
+  <si>
+    <t>puttan@outlook.com</t>
+  </si>
+  <si>
+    <t>What brings you in?</t>
+  </si>
+  <si>
+    <t>Let’s talk Insurance!</t>
+  </si>
+  <si>
+    <t>Let’s add your credit card</t>
+  </si>
+  <si>
+    <t>Credit Card Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expiry</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>COVID Screening</t>
+  </si>
+  <si>
+    <t>Page Heading After Confirmation</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Enter the caretaker / account holder’s information</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Sariya</t>
+  </si>
+  <si>
+    <t>Jadui</t>
+  </si>
+  <si>
+    <t>chetan@gmail.com</t>
+  </si>
+  <si>
+    <t>Patient Info Page Heading</t>
+  </si>
+  <si>
+    <t>Enter patient’s Information</t>
+  </si>
+  <si>
+    <t>Please pick Date and Time</t>
+  </si>
+  <si>
+    <t>Who is the appointment for</t>
+  </si>
+  <si>
+    <t>Check the details of the appointment</t>
   </si>
 </sst>
 </file>
@@ -171,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,12 +350,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,4 +844,873 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5105105105105100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>109286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>35004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>9919817178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>9919817171</v>
+      </c>
+      <c r="C6">
+        <v>9919817172</v>
+      </c>
+      <c r="D6">
+        <v>9919817173</v>
+      </c>
+      <c r="E6">
+        <v>9919817174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>9919817171</v>
+      </c>
+      <c r="C6">
+        <v>9919817172</v>
+      </c>
+      <c r="D6">
+        <v>9919817173</v>
+      </c>
+      <c r="E6">
+        <v>9919817174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>